--- a/contenedores/airflow/mantenedores/diccionario_validador.xlsx
+++ b/contenedores/airflow/mantenedores/diccionario_validador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E905AE3B-66E0-4404-9BC5-E56355E1F93E}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA435B66-50E1-4797-B3EE-B5F98115C6C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
@@ -464,15 +464,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>

--- a/contenedores/airflow/mantenedores/diccionario_validador.xlsx
+++ b/contenedores/airflow/mantenedores/diccionario_validador.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/validador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{211D814C-1E4D-4D6B-B49A-1AFA95CACA3A}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC6B6EE-E34E-4AB7-8C61-BB8E342F9741}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario_validador" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>num_validador</t>
   </si>
@@ -196,6 +207,102 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Tipo de obligacion reportado igual a (07, 08, 41, 42, 43, 44) y tipo de flujo es distinto a 03</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Amortizacion de capital (01) con signo distinto de negativo(-)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Interes capitalizado (02) con signo distinto de positivo (+)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Venta de cartera (04) con signo distinto de negativo (-)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Compra de cartera (05) con signo distinto de positivo (+)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Cesion de credito del reportante a otra entidad (06) con signo distinto de negativo (-)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Cesion de credito adquirido por el reportante (07) con signo distinto de positivo (+)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Prescripcion sentenciada por Tribunal diferentes a un procedimiento concursal de liquidacion (08) con signo distinto a negativo (-)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Exclusion por obligacion reportable que cumple cinco años en morosidad (09) con signo distinto a negativo (-)</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Tipo de flujo informado Liquidacion de la obligacion por Procedimiento Concursal de liquidacion (10) con signo distinto de negativo (-)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Se informa tipo de flujo 08 y/o 10 en el registro 01 y no existe tipo de registro 02 informado</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Se informa tipo de registro 02 y no existen flujos 08 y/o 10 en el registro 01</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Se informa tipo de flujo 04 y/o 06 en el registro 01 y no existe tipo de registro 03 informado</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Se informa tipo de registro 03 y no existen flujos 04 y/o 06 en el registro 01</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Se informa tipo de flujo 05 y/o 07 en el registro 01 y no existe tipo de registro 04 informado</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Se informa tipo de registro 04 y no existen flujos 05 y/o 07 en el registro 01</t>
   </si>
 </sst>
 </file>
@@ -261,10 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -895,6 +998,230 @@
         <v>16</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contenedores/airflow/mantenedores/diccionario_validador.xlsx
+++ b/contenedores/airflow/mantenedores/diccionario_validador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC6B6EE-E34E-4AB7-8C61-BB8E342F9741}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF5F219-2A62-42E2-8576-23E4AB5B969C}"/>
   <bookViews>
     <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>Si se informa tipo deudor 1, el sujeto tiene mora y el monto actual = suma( monto al dia + tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>Se informa tipo de registro 04 y no existen flujos 05 y/o 07 en el registro 01</t>
+  </si>
+  <si>
+    <t>Si se informa tipo deudor 1, el sujeto esta 100% moroso y el monto actual = suma(tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
   </si>
 </sst>
 </file>
@@ -368,6 +368,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,7 +640,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -891,7 +895,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -902,10 +906,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -916,10 +920,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -930,10 +934,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -944,10 +948,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -958,10 +962,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -972,10 +976,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -986,10 +990,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1000,10 +1004,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1014,10 +1018,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1028,10 +1032,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1042,10 +1046,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -1056,10 +1060,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
@@ -1070,10 +1074,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -1084,10 +1088,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -1098,10 +1102,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -1112,10 +1116,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -1126,10 +1130,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -1140,10 +1144,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -1154,10 +1158,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -1168,10 +1172,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -1182,10 +1186,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -1196,10 +1200,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -1210,10 +1214,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>

--- a/contenedores/airflow/mantenedores/diccionario_validador.xlsx
+++ b/contenedores/airflow/mantenedores/diccionario_validador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/contenedores/airflow/mantenedores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF5F219-2A62-42E2-8576-23E4AB5B969C}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C3BC911C-CB85-46EA-967D-51D15C7D4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F17C48E-046C-4FB4-A526-DAE009189D04}"/>
   <bookViews>
     <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>num_validador</t>
   </si>
@@ -303,6 +303,42 @@
   </si>
   <si>
     <t>Si se informa tipo deudor 1, el sujeto esta 100% moroso y el monto actual = suma(tramos de mora de 1 a 9) entonces carga financiera tiene que estar en cero.</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Para el registro 2, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Para el registro 3, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Para el registro 4, Rut del deudor + codigo de la operacion + tipo de obligacion debe ser unico</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Suma absoluta para montos de flujos 08 y 10 en el registro 1 es distinto a la suma de montos informado en el registro 2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Suma abosulta para montos de flujos 04 y 06 en el registro 1 es distinto a la suma de montos informado en el registro 3</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Suma absoluta para montos de flujos 05 y 07 en el registro 1 es distinto a la suma de montos informado en el registro 4</t>
   </si>
 </sst>
 </file>
@@ -637,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1262,90 @@
         <v>36</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
